--- a/all_in_one.xlsx
+++ b/all_in_one.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="32">
   <si>
     <t>day</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -463,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +484,9 @@
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,23 +723,23 @@
         <v>4.33</v>
       </c>
       <c r="E9" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G9" s="2">
         <v>17</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K9" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2">

--- a/all_in_one.xlsx
+++ b/all_in_one.xlsx
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M423"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M426" sqref="M426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,14 +756,28 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="E10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2">
+        <v>16</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="2">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2">
+        <v>32</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2">
         <v>0</v>
@@ -816,14 +830,28 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2">
+        <v>31</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="2">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2">
+        <v>28</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2">
         <v>0</v>
@@ -3350,9 +3378,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
-      <c r="M143" s="2">
-        <v>1</v>
-      </c>
+      <c r="M143" s="2"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
@@ -4672,9 +4698,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
-      <c r="M213" s="2">
-        <v>1</v>
-      </c>
+      <c r="M213" s="2"/>
     </row>
     <row r="214" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
@@ -5994,9 +6018,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
-      <c r="M283" s="2">
-        <v>1</v>
-      </c>
+      <c r="M283" s="2"/>
     </row>
     <row r="284" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
@@ -7316,9 +7338,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
       <c r="L353" s="2"/>
-      <c r="M353" s="2">
-        <v>1</v>
-      </c>
+      <c r="M353" s="2"/>
     </row>
     <row r="354" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
@@ -8638,9 +8658,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
-      <c r="M423" s="2">
-        <v>1</v>
-      </c>
+      <c r="M423" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
